--- a/Observations.xlsx
+++ b/Observations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tshaffer/Developer/pacio/connectathon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EB21CD-18D4-7C4F-A308-B080D4DF1042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE753D4A-C8D8-A64A-A8D1-A6E10345C069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" activeTab="1" xr2:uid="{EC2A1AEB-2F88-2E41-8F7D-4AC12021CE66}"/>
+    <workbookView xWindow="5680" yWindow="3020" windowWidth="27640" windowHeight="16540" activeTab="1" xr2:uid="{EC2A1AEB-2F88-2E41-8F7D-4AC12021CE66}"/>
   </bookViews>
   <sheets>
     <sheet name="cognitive" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="52">
   <si>
     <t>Is there evidence of an acute change in mental status from the patients baseline?</t>
   </si>
@@ -174,9 +174,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>loinc</t>
-  </si>
-  <si>
     <t>question</t>
   </si>
   <si>
@@ -184,6 +181,15 @@
   </si>
   <si>
     <t>11111-1</t>
+  </si>
+  <si>
+    <t>questionLoinc</t>
+  </si>
+  <si>
+    <t>answerLoinc</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
   </si>
 </sst>
 </file>
@@ -564,23 +570,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE806079-B845-414C-B143-6BB705F6E1F3}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="82" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -588,16 +594,19 @@
         <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -613,8 +622,11 @@
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -630,8 +642,11 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -647,8 +662,11 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -664,8 +682,11 @@
       <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -681,8 +702,11 @@
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -698,8 +722,11 @@
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -715,8 +742,11 @@
       <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -732,8 +762,11 @@
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="F9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -749,8 +782,11 @@
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -766,8 +802,11 @@
       <c r="E11" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="F11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -783,8 +822,11 @@
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="F12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -799,6 +841,9 @@
       </c>
       <c r="E13" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -808,23 +853,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C868CDF2-40FC-7642-ADFB-688A937CB825}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="82" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="12.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -832,16 +878,19 @@
         <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -849,7 +898,7 @@
         <v>43790.59097222222</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -857,8 +906,11 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -866,7 +918,7 @@
         <v>43790.59097222222</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -874,8 +926,11 @@
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -883,7 +938,7 @@
         <v>43790.59097222222</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -891,8 +946,11 @@
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -900,7 +958,7 @@
         <v>43790.59097222222</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
@@ -908,8 +966,11 @@
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -917,7 +978,7 @@
         <v>43790.59097222222</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
@@ -925,8 +986,11 @@
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -934,7 +998,7 @@
         <v>43790.59097222222</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
@@ -942,8 +1006,11 @@
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -951,7 +1018,7 @@
         <v>43790.59097222222</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
@@ -959,8 +1026,11 @@
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -968,7 +1038,7 @@
         <v>43790.59097222222</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>20</v>
@@ -976,8 +1046,11 @@
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -985,7 +1058,7 @@
         <v>43790.59097222222</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
@@ -993,8 +1066,11 @@
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1002,7 +1078,7 @@
         <v>43790.59097222222</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
@@ -1010,8 +1086,11 @@
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1019,7 +1098,7 @@
         <v>43790.59097222222</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
@@ -1027,8 +1106,11 @@
       <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1036,7 +1118,7 @@
         <v>43790.59097222222</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>24</v>
@@ -1044,8 +1126,11 @@
       <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1053,7 +1138,7 @@
         <v>43790.59097222222</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>26</v>
@@ -1061,8 +1146,11 @@
       <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -1070,7 +1158,7 @@
         <v>43790.59097222222</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>27</v>
@@ -1078,8 +1166,11 @@
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1087,7 +1178,7 @@
         <v>43790.59097222222</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>28</v>
@@ -1095,8 +1186,11 @@
       <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1104,7 +1198,7 @@
         <v>43790.59097222222</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>29</v>
@@ -1112,8 +1206,11 @@
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -1121,7 +1218,7 @@
         <v>43790.59097222222</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>30</v>
@@ -1129,8 +1226,11 @@
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -1138,7 +1238,7 @@
         <v>43802.75</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -1146,8 +1246,11 @@
       <c r="E19" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -1155,7 +1258,7 @@
         <v>43802.75</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -1163,8 +1266,11 @@
       <c r="E20" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -1172,7 +1278,7 @@
         <v>43802.75</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -1180,8 +1286,11 @@
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -1189,7 +1298,7 @@
         <v>43802.75</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>15</v>
@@ -1197,8 +1306,11 @@
       <c r="E22" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1206,7 +1318,7 @@
         <v>43802.75</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>17</v>
@@ -1214,8 +1326,11 @@
       <c r="E23" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -1223,7 +1338,7 @@
         <v>43802.75</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>18</v>
@@ -1231,8 +1346,11 @@
       <c r="E24" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1240,7 +1358,7 @@
         <v>43802.75</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>19</v>
@@ -1248,8 +1366,11 @@
       <c r="E25" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -1257,7 +1378,7 @@
         <v>43802.75</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
@@ -1265,8 +1386,11 @@
       <c r="E26" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -1274,7 +1398,7 @@
         <v>43802.75</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>21</v>
@@ -1282,8 +1406,11 @@
       <c r="E27" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -1291,7 +1418,7 @@
         <v>43802.75</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>22</v>
@@ -1299,8 +1426,11 @@
       <c r="E28" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F28" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -1308,7 +1438,7 @@
         <v>43802.75</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>23</v>
@@ -1316,8 +1446,11 @@
       <c r="E29" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -1325,7 +1458,7 @@
         <v>43802.75</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>24</v>
@@ -1333,8 +1466,11 @@
       <c r="E30" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -1342,7 +1478,7 @@
         <v>43802.75</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>26</v>
@@ -1350,8 +1486,11 @@
       <c r="E31" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F31" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -1359,7 +1498,7 @@
         <v>43802.75</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>27</v>
@@ -1367,8 +1506,11 @@
       <c r="E32" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F32" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -1376,7 +1518,7 @@
         <v>43802.75</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>28</v>
@@ -1384,8 +1526,11 @@
       <c r="E33" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F33" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -1393,7 +1538,7 @@
         <v>43802.75</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>29</v>
@@ -1401,8 +1546,11 @@
       <c r="E34" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -1410,7 +1558,7 @@
         <v>43802.75</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>30</v>
@@ -1418,8 +1566,11 @@
       <c r="E35" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F35" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -1427,7 +1578,7 @@
         <v>43803.75</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
@@ -1435,8 +1586,11 @@
       <c r="E36" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F36" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -1444,7 +1598,7 @@
         <v>43803.75</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>13</v>
@@ -1452,8 +1606,11 @@
       <c r="E37" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F37" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1461,7 +1618,7 @@
         <v>43803.75</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>14</v>
@@ -1469,8 +1626,11 @@
       <c r="E38" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F38" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -1478,7 +1638,7 @@
         <v>43803.75</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>15</v>
@@ -1486,8 +1646,11 @@
       <c r="E39" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F39" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1495,7 +1658,7 @@
         <v>43803.75</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>17</v>
@@ -1503,8 +1666,11 @@
       <c r="E40" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F40" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -1512,7 +1678,7 @@
         <v>43803.75</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>18</v>
@@ -1520,8 +1686,11 @@
       <c r="E41" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F41" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
@@ -1529,7 +1698,7 @@
         <v>43803.75</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>19</v>
@@ -1537,8 +1706,11 @@
       <c r="E42" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F42" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>38</v>
       </c>
@@ -1546,7 +1718,7 @@
         <v>43803.75</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>20</v>
@@ -1554,8 +1726,11 @@
       <c r="E43" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F43" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
@@ -1563,7 +1738,7 @@
         <v>43803.75</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>21</v>
@@ -1571,8 +1746,11 @@
       <c r="E44" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F44" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1580,7 +1758,7 @@
         <v>43803.75</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>22</v>
@@ -1588,8 +1766,11 @@
       <c r="E45" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F45" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>38</v>
       </c>
@@ -1597,7 +1778,7 @@
         <v>43803.75</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>23</v>
@@ -1605,8 +1786,11 @@
       <c r="E46" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F46" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
@@ -1614,7 +1798,7 @@
         <v>43803.75</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>24</v>
@@ -1622,8 +1806,11 @@
       <c r="E47" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F47" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>38</v>
       </c>
@@ -1631,7 +1818,7 @@
         <v>43803.75</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>26</v>
@@ -1639,8 +1826,11 @@
       <c r="E48" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F48" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>38</v>
       </c>
@@ -1648,7 +1838,7 @@
         <v>43803.75</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>27</v>
@@ -1656,8 +1846,11 @@
       <c r="E49" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F49" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>38</v>
       </c>
@@ -1665,7 +1858,7 @@
         <v>43803.75</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>28</v>
@@ -1673,8 +1866,11 @@
       <c r="E50" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F50" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>38</v>
       </c>
@@ -1682,7 +1878,7 @@
         <v>43803.75</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>29</v>
@@ -1690,8 +1886,11 @@
       <c r="E51" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F51" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>38</v>
       </c>
@@ -1699,7 +1898,7 @@
         <v>43803.75</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>30</v>
@@ -1707,8 +1906,11 @@
       <c r="E52" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>39</v>
       </c>
@@ -1716,7 +1918,7 @@
         <v>43829.583333333336</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -1724,8 +1926,11 @@
       <c r="E53" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F53" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>39</v>
       </c>
@@ -1733,7 +1938,7 @@
         <v>43829.583333333336</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -1741,8 +1946,11 @@
       <c r="E54" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F54" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>39</v>
       </c>
@@ -1750,7 +1958,7 @@
         <v>43829.583333333336</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
@@ -1758,8 +1966,11 @@
       <c r="E55" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F55" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>39</v>
       </c>
@@ -1767,7 +1978,7 @@
         <v>43829.583333333336</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>15</v>
@@ -1775,8 +1986,11 @@
       <c r="E56" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F56" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>39</v>
       </c>
@@ -1784,7 +1998,7 @@
         <v>43829.583333333336</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>17</v>
@@ -1792,8 +2006,11 @@
       <c r="E57" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F57" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>39</v>
       </c>
@@ -1801,7 +2018,7 @@
         <v>43829.583333333336</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>18</v>
@@ -1809,8 +2026,11 @@
       <c r="E58" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F58" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>39</v>
       </c>
@@ -1818,7 +2038,7 @@
         <v>43829.583333333336</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>19</v>
@@ -1826,8 +2046,11 @@
       <c r="E59" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F59" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>39</v>
       </c>
@@ -1835,7 +2058,7 @@
         <v>43829.583333333336</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>20</v>
@@ -1843,8 +2066,11 @@
       <c r="E60" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F60" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>39</v>
       </c>
@@ -1852,7 +2078,7 @@
         <v>43829.583333333336</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>21</v>
@@ -1860,8 +2086,11 @@
       <c r="E61" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F61" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>39</v>
       </c>
@@ -1869,7 +2098,7 @@
         <v>43829.583333333336</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>22</v>
@@ -1877,8 +2106,11 @@
       <c r="E62" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F62" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>39</v>
       </c>
@@ -1886,7 +2118,7 @@
         <v>43829.583333333336</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>23</v>
@@ -1894,8 +2126,11 @@
       <c r="E63" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F63" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>39</v>
       </c>
@@ -1903,7 +2138,7 @@
         <v>43829.583333333336</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>24</v>
@@ -1911,8 +2146,11 @@
       <c r="E64" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F64" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>39</v>
       </c>
@@ -1920,7 +2158,7 @@
         <v>43829.583333333336</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>26</v>
@@ -1928,8 +2166,11 @@
       <c r="E65" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F65" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>39</v>
       </c>
@@ -1937,7 +2178,7 @@
         <v>43829.583333333336</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>27</v>
@@ -1945,8 +2186,11 @@
       <c r="E66" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F66" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>39</v>
       </c>
@@ -1954,7 +2198,7 @@
         <v>43829.583333333336</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>28</v>
@@ -1962,8 +2206,11 @@
       <c r="E67" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F67" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>39</v>
       </c>
@@ -1971,7 +2218,7 @@
         <v>43829.583333333336</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>29</v>
@@ -1979,8 +2226,11 @@
       <c r="E68" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F68" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>39</v>
       </c>
@@ -1988,13 +2238,16 @@
         <v>43829.583333333336</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
